--- a/data/trans_orig/IP07A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5778BC-FBE7-4427-94C4-C543580BDD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFE190D6-A99E-4EC4-8FAF-D46268E4D082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DC01D5B8-0176-4812-9DE1-A3DE8A9F92CA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0310851D-E6B7-4A5E-9A3E-EE4903358A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,222 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
     <t>27,58%</t>
   </si>
   <si>
@@ -118,33 +313,6 @@
     <t>31,61%</t>
   </si>
   <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
     <t>20,22%</t>
   </si>
   <si>
@@ -172,33 +340,6 @@
     <t>25,75%</t>
   </si>
   <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
     <t>12,58%</t>
   </si>
   <si>
@@ -226,145 +367,58 @@
     <t>19,89%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>27,56%</t>
@@ -394,33 +448,6 @@
     <t>31,4%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
     <t>17,96%</t>
   </si>
   <si>
@@ -445,33 +472,6 @@
     <t>23,91%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
     <t>11,11%</t>
   </si>
   <si>
@@ -502,6 +502,180 @@
     <t>Menores según frecuencia de preocuparse por su aspecto en 2012 (Tasa respuesta: 44,74%)</t>
   </si>
   <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
     <t>24,51%</t>
   </si>
   <si>
@@ -517,9 +691,6 @@
     <t>22,5%</t>
   </si>
   <si>
-    <t>32,19%</t>
-  </si>
-  <si>
     <t>25,85%</t>
   </si>
   <si>
@@ -529,30 +700,6 @@
     <t>29,03%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
     <t>17,69%</t>
   </si>
   <si>
@@ -580,33 +727,6 @@
     <t>21,69%</t>
   </si>
   <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
     <t>19,55%</t>
   </si>
   <si>
@@ -634,124 +754,49 @@
     <t>26,67%</t>
   </si>
   <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
   </si>
   <si>
     <t>24,24%</t>
@@ -781,30 +826,6 @@
     <t>27,85%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
     <t>17,51%</t>
   </si>
   <si>
@@ -826,27 +847,6 @@
     <t>21,4%</t>
   </si>
   <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
     <t>17,12%</t>
   </si>
   <si>
@@ -877,6 +877,183 @@
     <t>Menores según frecuencia de preocuparse por su aspecto en 2015 (Tasa respuesta: 47,22%)</t>
   </si>
   <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
     <t>19,04%</t>
   </si>
   <si>
@@ -889,9 +1066,6 @@
     <t>21,89%</t>
   </si>
   <si>
-    <t>18,32%</t>
-  </si>
-  <si>
     <t>26,71%</t>
   </si>
   <si>
@@ -904,33 +1078,6 @@
     <t>23,69%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
     <t>18,61%</t>
   </si>
   <si>
@@ -958,24 +1105,6 @@
     <t>23,39%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
     <t>17,72%</t>
   </si>
   <si>
@@ -994,133 +1123,43 @@
     <t>18,45%</t>
   </si>
   <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>17,85%</t>
@@ -1147,18 +1186,6 @@
     <t>22,1%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
     <t>17,58%</t>
   </si>
   <si>
@@ -1178,33 +1205,6 @@
   </si>
   <si>
     <t>21,88%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
   </si>
   <si>
     <t>18,35%</t>
@@ -1620,7 +1620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FC1C69-5245-4B80-B8CE-EA42EF4B9055}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6BD87F-18D1-4462-A1EE-C26AF9609B63}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2010,10 +2010,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>76842</v>
+        <v>25929</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2025,10 +2025,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>77773</v>
+        <v>13394</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -2040,10 +2040,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="N10" s="7">
-        <v>154615</v>
+        <v>39322</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2061,10 +2061,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>53564</v>
+        <v>12577</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2076,10 +2076,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>26480</v>
+        <v>7902</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -2091,10 +2091,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="N11" s="7">
-        <v>80044</v>
+        <v>20479</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -2112,10 +2112,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>56335</v>
+        <v>17785</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -2127,10 +2127,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>66835</v>
+        <v>17303</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -2142,10 +2142,10 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="N12" s="7">
-        <v>123170</v>
+        <v>35088</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>41</v>
@@ -2163,10 +2163,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>56868</v>
+        <v>5345</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -2178,10 +2178,10 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>35552</v>
+        <v>12749</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
@@ -2193,10 +2193,10 @@
         <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>92420</v>
+        <v>18093</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2214,10 +2214,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>35048</v>
+        <v>3104</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>53</v>
@@ -2229,10 +2229,10 @@
         <v>55</v>
       </c>
       <c r="H14" s="7">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>58170</v>
+        <v>4694</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>56</v>
@@ -2244,10 +2244,10 @@
         <v>58</v>
       </c>
       <c r="M14" s="7">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="N14" s="7">
-        <v>93217</v>
+        <v>7798</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>59</v>
@@ -2265,10 +2265,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>418</v>
+        <v>98</v>
       </c>
       <c r="D15" s="7">
-        <v>278656</v>
+        <v>64740</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>62</v>
@@ -2280,10 +2280,10 @@
         <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>264810</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>62</v>
@@ -2295,10 +2295,10 @@
         <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>811</v>
+        <v>181</v>
       </c>
       <c r="N15" s="7">
-        <v>543466</v>
+        <v>120781</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>62</v>
@@ -2318,10 +2318,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D16" s="7">
-        <v>17785</v>
+        <v>56868</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>64</v>
@@ -2333,10 +2333,10 @@
         <v>66</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I16" s="7">
-        <v>17303</v>
+        <v>35552</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>67</v>
@@ -2348,10 +2348,10 @@
         <v>69</v>
       </c>
       <c r="M16" s="7">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="N16" s="7">
-        <v>35088</v>
+        <v>92420</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>70</v>
@@ -2369,10 +2369,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D17" s="7">
-        <v>12577</v>
+        <v>53564</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
@@ -2384,10 +2384,10 @@
         <v>75</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I17" s="7">
-        <v>7902</v>
+        <v>26480</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>76</v>
@@ -2399,10 +2399,10 @@
         <v>78</v>
       </c>
       <c r="M17" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="N17" s="7">
-        <v>20479</v>
+        <v>80044</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>79</v>
@@ -2420,10 +2420,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="D18" s="7">
-        <v>5345</v>
+        <v>76842</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>82</v>
@@ -2435,10 +2435,10 @@
         <v>84</v>
       </c>
       <c r="H18" s="7">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="I18" s="7">
-        <v>12749</v>
+        <v>77773</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>85</v>
@@ -2450,10 +2450,10 @@
         <v>87</v>
       </c>
       <c r="M18" s="7">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="N18" s="7">
-        <v>18093</v>
+        <v>154615</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>88</v>
@@ -2471,10 +2471,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D19" s="7">
-        <v>25929</v>
+        <v>56335</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>91</v>
@@ -2486,10 +2486,10 @@
         <v>93</v>
       </c>
       <c r="H19" s="7">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I19" s="7">
-        <v>13394</v>
+        <v>66835</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>94</v>
@@ -2501,10 +2501,10 @@
         <v>96</v>
       </c>
       <c r="M19" s="7">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="N19" s="7">
-        <v>39322</v>
+        <v>123170</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>97</v>
@@ -2522,10 +2522,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D20" s="7">
-        <v>3104</v>
+        <v>35048</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>100</v>
@@ -2537,10 +2537,10 @@
         <v>102</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I20" s="7">
-        <v>4694</v>
+        <v>58170</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>103</v>
@@ -2552,10 +2552,10 @@
         <v>105</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="N20" s="7">
-        <v>7798</v>
+        <v>93217</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>106</v>
@@ -2573,10 +2573,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>98</v>
+        <v>418</v>
       </c>
       <c r="D21" s="7">
-        <v>64740</v>
+        <v>278656</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>62</v>
@@ -2588,10 +2588,10 @@
         <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>264810</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -2603,10 +2603,10 @@
         <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>181</v>
+        <v>811</v>
       </c>
       <c r="N21" s="7">
-        <v>120781</v>
+        <v>543466</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>62</v>
@@ -2626,10 +2626,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D22" s="7">
-        <v>94627</v>
+        <v>82796</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>109</v>
@@ -2641,10 +2641,10 @@
         <v>111</v>
       </c>
       <c r="H22" s="7">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="I22" s="7">
-        <v>95076</v>
+        <v>48946</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>112</v>
@@ -2656,10 +2656,10 @@
         <v>114</v>
       </c>
       <c r="M22" s="7">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="N22" s="7">
-        <v>189703</v>
+        <v>131742</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>115</v>
@@ -2728,10 +2728,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="D24" s="7">
-        <v>61679</v>
+        <v>94627</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>127</v>
@@ -2743,10 +2743,10 @@
         <v>129</v>
       </c>
       <c r="H24" s="7">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="I24" s="7">
-        <v>79584</v>
+        <v>95076</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>130</v>
@@ -2755,22 +2755,22 @@
         <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="N24" s="7">
-        <v>141264</v>
+        <v>189703</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,40 +2779,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D25" s="7">
-        <v>82796</v>
+        <v>61679</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="I25" s="7">
-        <v>48946</v>
+        <v>79584</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="M25" s="7">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="N25" s="7">
-        <v>131742</v>
+        <v>141264</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>141</v>
@@ -2942,7 +2942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB1A739-E238-4930-866E-19CCFA6C016C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0858E791-F8EC-4B04-AC72-5834CC83C637}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3332,10 +3332,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>64986</v>
+        <v>26384</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>154</v>
@@ -3347,34 +3347,34 @@
         <v>156</v>
       </c>
       <c r="H10" s="7">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>68201</v>
+        <v>18090</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>62</v>
+      </c>
+      <c r="N10" s="7">
+        <v>44474</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="M10" s="7">
-        <v>193</v>
-      </c>
-      <c r="N10" s="7">
-        <v>133187</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,49 +3383,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>39713</v>
+        <v>8472</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="7">
+        <v>14</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9780</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="7">
-        <v>40</v>
-      </c>
-      <c r="I11" s="7">
-        <v>27425</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>26</v>
+      </c>
+      <c r="N11" s="7">
+        <v>18252</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M11" s="7">
-        <v>97</v>
-      </c>
-      <c r="N11" s="7">
-        <v>67137</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,49 +3434,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>46889</v>
+        <v>15324</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>23</v>
+      </c>
+      <c r="I12" s="7">
+        <v>16345</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="7">
-        <v>70</v>
-      </c>
-      <c r="I12" s="7">
-        <v>49138</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>44</v>
+      </c>
+      <c r="N12" s="7">
+        <v>31669</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M12" s="7">
-        <v>140</v>
-      </c>
-      <c r="N12" s="7">
-        <v>96027</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,49 +3485,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>61686</v>
+        <v>11114</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7">
+        <v>16104</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="7">
-        <v>54</v>
-      </c>
-      <c r="I13" s="7">
-        <v>37431</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>38</v>
+      </c>
+      <c r="N13" s="7">
+        <v>27218</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M13" s="7">
-        <v>143</v>
-      </c>
-      <c r="N13" s="7">
-        <v>99117</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,49 +3536,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>51829</v>
+        <v>4881</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>16</v>
+      </c>
+      <c r="I14" s="7">
+        <v>11650</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H14" s="7">
-        <v>95</v>
-      </c>
-      <c r="I14" s="7">
-        <v>67872</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>23</v>
+      </c>
+      <c r="N14" s="7">
+        <v>16530</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="M14" s="7">
-        <v>173</v>
-      </c>
-      <c r="N14" s="7">
-        <v>119701</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,10 +3587,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>390</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>265102</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>62</v>
@@ -3602,10 +3602,10 @@
         <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>250067</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>62</v>
@@ -3617,10 +3617,10 @@
         <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>746</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>515169</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>62</v>
@@ -3640,49 +3640,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7">
-        <v>15324</v>
+        <v>61686</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16" s="7">
+        <v>54</v>
+      </c>
+      <c r="I16" s="7">
+        <v>37431</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="7">
-        <v>23</v>
-      </c>
-      <c r="I16" s="7">
-        <v>16345</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>143</v>
+      </c>
+      <c r="N16" s="7">
+        <v>99117</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="M16" s="7">
-        <v>44</v>
-      </c>
-      <c r="N16" s="7">
-        <v>31669</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,49 +3691,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D17" s="7">
-        <v>8472</v>
+        <v>39713</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" s="7">
+        <v>40</v>
+      </c>
+      <c r="I17" s="7">
+        <v>27425</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="7">
-        <v>14</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9780</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>97</v>
+      </c>
+      <c r="N17" s="7">
+        <v>67137</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="M17" s="7">
-        <v>26</v>
-      </c>
-      <c r="N17" s="7">
-        <v>18252</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,49 +3742,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D18" s="7">
-        <v>11114</v>
+        <v>64986</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="7">
+        <v>97</v>
+      </c>
+      <c r="I18" s="7">
+        <v>68201</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" s="7">
+        <v>193</v>
+      </c>
+      <c r="N18" s="7">
+        <v>133187</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H18" s="7">
-        <v>22</v>
-      </c>
-      <c r="I18" s="7">
-        <v>16104</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="M18" s="7">
-        <v>38</v>
-      </c>
-      <c r="N18" s="7">
-        <v>27218</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,49 +3793,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D19" s="7">
-        <v>26384</v>
+        <v>46889</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H19" s="7">
+        <v>70</v>
+      </c>
+      <c r="I19" s="7">
+        <v>49138</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H19" s="7">
-        <v>26</v>
-      </c>
-      <c r="I19" s="7">
-        <v>18090</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>140</v>
+      </c>
+      <c r="N19" s="7">
+        <v>96027</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="M19" s="7">
-        <v>62</v>
-      </c>
-      <c r="N19" s="7">
-        <v>44474</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,28 +3844,28 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7">
-        <v>4881</v>
+        <v>51829</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>95</v>
+      </c>
+      <c r="I20" s="7">
+        <v>67872</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="H20" s="7">
-        <v>16</v>
-      </c>
-      <c r="I20" s="7">
-        <v>11650</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>233</v>
@@ -3874,10 +3874,10 @@
         <v>234</v>
       </c>
       <c r="M20" s="7">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="N20" s="7">
-        <v>16530</v>
+        <v>119701</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>235</v>
@@ -3895,10 +3895,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>390</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>265102</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>62</v>
@@ -3910,10 +3910,10 @@
         <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>250067</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -3925,10 +3925,10 @@
         <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>746</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>515169</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>62</v>
@@ -3948,49 +3948,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D22" s="7">
-        <v>80310</v>
+        <v>88069</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>238</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>80</v>
+      </c>
+      <c r="I22" s="7">
+        <v>55521</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H22" s="7">
-        <v>120</v>
-      </c>
-      <c r="I22" s="7">
-        <v>84546</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>205</v>
+      </c>
+      <c r="N22" s="7">
+        <v>143590</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="M22" s="7">
-        <v>237</v>
-      </c>
-      <c r="N22" s="7">
-        <v>164856</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +4005,13 @@
         <v>48185</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H23" s="7">
         <v>54</v>
@@ -4020,13 +4020,13 @@
         <v>37204</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M23" s="7">
         <v>123</v>
@@ -4035,13 +4035,13 @@
         <v>85389</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,40 +4050,40 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="D24" s="7">
-        <v>58003</v>
+        <v>80310</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>120</v>
+      </c>
+      <c r="I24" s="7">
+        <v>84546</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" s="7">
-        <v>92</v>
-      </c>
-      <c r="I24" s="7">
-        <v>65242</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="M24" s="7">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="N24" s="7">
-        <v>123245</v>
+        <v>164856</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>259</v>
@@ -4101,40 +4101,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="D25" s="7">
-        <v>88069</v>
+        <v>58003</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>262</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>263</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I25" s="7">
-        <v>55521</v>
+        <v>65242</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>264</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="M25" s="7">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="N25" s="7">
-        <v>143590</v>
+        <v>123245</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>266</v>
@@ -4264,7 +4264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9032A719-7DDF-40BC-9B01-A9F748F38FD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AA8C41-6706-4D14-BA07-F339406A726E}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4654,10 +4654,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>53622</v>
+        <v>26364</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>279</v>
@@ -4669,10 +4669,10 @@
         <v>281</v>
       </c>
       <c r="H10" s="7">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>57806</v>
+        <v>26840</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>282</v>
@@ -4684,19 +4684,19 @@
         <v>284</v>
       </c>
       <c r="M10" s="7">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="N10" s="7">
-        <v>111428</v>
+        <v>53204</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,49 +4705,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>57151</v>
+        <v>14971</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>25</v>
+      </c>
+      <c r="I11" s="7">
+        <v>15881</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="H11" s="7">
-        <v>45</v>
-      </c>
-      <c r="I11" s="7">
-        <v>32479</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="7">
+        <v>46</v>
+      </c>
+      <c r="N11" s="7">
+        <v>30853</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="M11" s="7">
-        <v>124</v>
-      </c>
-      <c r="N11" s="7">
-        <v>89630</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,49 +4756,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7">
-        <v>52400</v>
+        <v>10866</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>25</v>
+      </c>
+      <c r="I12" s="7">
+        <v>17342</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="H12" s="7">
-        <v>82</v>
-      </c>
-      <c r="I12" s="7">
-        <v>58667</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>41</v>
+      </c>
+      <c r="N12" s="7">
+        <v>28208</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="M12" s="7">
-        <v>153</v>
-      </c>
-      <c r="N12" s="7">
-        <v>111067</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,25 +4807,25 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>68563</v>
+        <v>11114</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H13" s="7">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>46830</v>
+        <v>15297</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>307</v>
@@ -4837,19 +4837,19 @@
         <v>309</v>
       </c>
       <c r="M13" s="7">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>115393</v>
+        <v>26411</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,49 +4858,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>49894</v>
+        <v>16417</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="I14" s="7">
-        <v>68240</v>
+        <v>16153</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="N14" s="7">
-        <v>118134</v>
+        <v>32570</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,10 +4909,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>115</v>
       </c>
       <c r="D15" s="7">
-        <v>281629</v>
+        <v>79732</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>62</v>
@@ -4924,10 +4924,10 @@
         <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>370</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>264022</v>
+        <v>91513</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>62</v>
@@ -4939,10 +4939,10 @@
         <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>751</v>
+        <v>253</v>
       </c>
       <c r="N15" s="7">
-        <v>545652</v>
+        <v>171245</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>62</v>
@@ -4962,49 +4962,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>10866</v>
+        <v>68563</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="H16" s="7">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I16" s="7">
-        <v>17342</v>
+        <v>46830</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M16" s="7">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="N16" s="7">
-        <v>28208</v>
+        <v>115393</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,49 +5013,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7">
-        <v>14971</v>
+        <v>57151</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I17" s="7">
-        <v>15881</v>
+        <v>32479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>46</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="N17" s="7">
-        <v>30853</v>
+        <v>89630</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,49 +5064,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7">
-        <v>11114</v>
+        <v>53622</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H18" s="7">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I18" s="7">
-        <v>15297</v>
+        <v>57806</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M18" s="7">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="N18" s="7">
-        <v>26411</v>
+        <v>111428</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,49 +5115,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7">
-        <v>26364</v>
+        <v>52400</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H19" s="7">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>26840</v>
+        <v>58667</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M19" s="7">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="N19" s="7">
-        <v>53204</v>
+        <v>111067</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>160</v>
+        <v>353</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,49 +5166,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D20" s="7">
-        <v>16417</v>
+        <v>49894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H20" s="7">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="I20" s="7">
-        <v>16153</v>
+        <v>68240</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>355</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M20" s="7">
+        <v>163</v>
+      </c>
+      <c r="N20" s="7">
+        <v>118134</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="M20" s="7">
-        <v>47</v>
-      </c>
-      <c r="N20" s="7">
-        <v>32570</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>358</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>360</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,10 +5217,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>115</v>
+        <v>381</v>
       </c>
       <c r="D21" s="7">
-        <v>79732</v>
+        <v>281629</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>62</v>
@@ -5232,10 +5232,10 @@
         <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>138</v>
+        <v>370</v>
       </c>
       <c r="I21" s="7">
-        <v>91513</v>
+        <v>264022</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -5247,10 +5247,10 @@
         <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>253</v>
+        <v>751</v>
       </c>
       <c r="N21" s="7">
-        <v>171245</v>
+        <v>545652</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>62</v>
@@ -5270,49 +5270,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="D22" s="7">
-        <v>64488</v>
+        <v>94927</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>361</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>199</v>
+        <v>362</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H22" s="7">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I22" s="7">
-        <v>75148</v>
+        <v>73670</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M22" s="7">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="N22" s="7">
-        <v>139636</v>
+        <v>168597</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5327,13 @@
         <v>72122</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="H23" s="7">
         <v>70</v>
@@ -5342,13 +5342,13 @@
         <v>48361</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="M23" s="7">
         <v>170</v>
@@ -5357,13 +5357,13 @@
         <v>120483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,49 +5372,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D24" s="7">
-        <v>63514</v>
+        <v>64488</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>374</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>375</v>
       </c>
       <c r="H24" s="7">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I24" s="7">
-        <v>73964</v>
+        <v>75148</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>376</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>377</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M24" s="7">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="N24" s="7">
-        <v>137477</v>
+        <v>139636</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,46 +5423,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="D25" s="7">
-        <v>94927</v>
+        <v>63514</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H25" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I25" s="7">
-        <v>73670</v>
+        <v>73964</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>384</v>
+        <v>152</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M25" s="7">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="N25" s="7">
-        <v>168597</v>
+        <v>137477</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>388</v>
@@ -5486,7 +5486,7 @@
         <v>390</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="H26" s="7">
         <v>119</v>

--- a/data/trans_orig/IP07A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFE190D6-A99E-4EC4-8FAF-D46268E4D082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46BB7865-A54A-49B2-8FAB-FF5D4908EF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0310851D-E6B7-4A5E-9A3E-EE4903358A1C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{17E3D5A8-8B04-431B-97D8-B70E1C694243}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="404">
   <si>
     <t>Menores según frecuencia de preocuparse por su aspecto en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
@@ -67,1168 +67,1189 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse por su aspecto en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse por su aspecto en 2015 (Tasa respuesta: 47,22%)</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>22,81%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse por su aspecto en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse por su aspecto en 2015 (Tasa respuesta: 47,22%)</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
+    <t>30,49%</t>
   </si>
   <si>
     <t>20,72%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
+    <t>17,39%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1260,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1335,39 +1356,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1419,7 +1440,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1530,13 +1551,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1545,6 +1559,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1609,19 +1630,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6BD87F-18D1-4462-A1EE-C26AF9609B63}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0044C-22A0-41CC-8070-8CA9EB38880F}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2010,49 +2051,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
-      </c>
-      <c r="D10" s="7">
-        <v>25929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>60</v>
-      </c>
-      <c r="N10" s="7">
-        <v>39322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,49 +2096,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7">
-        <v>12577</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7902</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>30</v>
-      </c>
-      <c r="N11" s="7">
-        <v>20479</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,49 +2141,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7">
-        <v>17785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>26</v>
-      </c>
-      <c r="I12" s="7">
-        <v>17303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>52</v>
-      </c>
-      <c r="N12" s="7">
-        <v>35088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,49 +2186,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7">
-        <v>5345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>27</v>
-      </c>
-      <c r="N13" s="7">
-        <v>18093</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,49 +2231,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4694</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,102 +2276,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>98</v>
-      </c>
-      <c r="D15" s="7">
-        <v>64740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>181</v>
-      </c>
-      <c r="N15" s="7">
-        <v>120781</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>56868</v>
+        <v>7130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>35552</v>
+        <v>13414</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="N16" s="7">
-        <v>92420</v>
+        <v>20545</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,49 +2374,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7">
-        <v>53564</v>
+        <v>20008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I17" s="7">
-        <v>26480</v>
+        <v>33466</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="7">
         <v>78</v>
       </c>
-      <c r="M17" s="7">
-        <v>122</v>
-      </c>
       <c r="N17" s="7">
-        <v>80044</v>
+        <v>53474</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,49 +2425,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D18" s="7">
-        <v>76842</v>
+        <v>40319</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="I18" s="7">
-        <v>77773</v>
+        <v>39909</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="N18" s="7">
-        <v>154615</v>
+        <v>80228</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,49 +2476,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>56335</v>
+        <v>31799</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>66835</v>
+        <v>15332</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="N19" s="7">
-        <v>123170</v>
+        <v>47131</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,49 +2527,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D20" s="7">
-        <v>35048</v>
+        <v>40932</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="7">
+        <v>38</v>
+      </c>
+      <c r="I20" s="7">
+        <v>25427</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="7">
         <v>101</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="7">
-        <v>86</v>
-      </c>
-      <c r="I20" s="7">
-        <v>58170</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" s="7">
-        <v>137</v>
-      </c>
       <c r="N20" s="7">
-        <v>93217</v>
+        <v>66359</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,102 +2578,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>418</v>
+        <v>210</v>
       </c>
       <c r="D21" s="7">
-        <v>278656</v>
+        <v>140189</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="I21" s="7">
-        <v>264810</v>
+        <v>127548</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>811</v>
+        <v>401</v>
       </c>
       <c r="N21" s="7">
-        <v>543466</v>
+        <v>267736</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D22" s="7">
-        <v>82796</v>
+        <v>31021</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
+        <v>72</v>
+      </c>
+      <c r="I22" s="7">
+        <v>49450</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M22" s="7">
+        <v>117</v>
+      </c>
+      <c r="N22" s="7">
+        <v>80471</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="I22" s="7">
-        <v>48946</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" s="7">
-        <v>200</v>
-      </c>
-      <c r="N22" s="7">
-        <v>131742</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,49 +2682,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D23" s="7">
-        <v>66141</v>
+        <v>41671</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I23" s="7">
-        <v>34382</v>
+        <v>46119</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="M23" s="7">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="N23" s="7">
-        <v>100523</v>
+        <v>87790</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,49 +2733,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="D24" s="7">
-        <v>94627</v>
+        <v>54308</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="H24" s="7">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="I24" s="7">
-        <v>95076</v>
+        <v>55167</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="M24" s="7">
-        <v>282</v>
+        <v>163</v>
       </c>
       <c r="N24" s="7">
-        <v>189703</v>
+        <v>109475</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,49 +2784,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>52</v>
+      </c>
+      <c r="D25" s="7">
+        <v>34342</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="7">
-        <v>61679</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="H25" s="7">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="I25" s="7">
-        <v>79584</v>
+        <v>19050</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="M25" s="7">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="N25" s="7">
-        <v>141264</v>
+        <v>53392</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,49 +2835,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D26" s="7">
-        <v>38152</v>
+        <v>41864</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="H26" s="7">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="I26" s="7">
-        <v>62864</v>
+        <v>23519</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="M26" s="7">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="N26" s="7">
-        <v>101016</v>
+        <v>65383</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,55 +2886,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>306</v>
+      </c>
+      <c r="D27" s="7">
+        <v>203206</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>285</v>
+      </c>
+      <c r="I27" s="7">
+        <v>193304</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>591</v>
+      </c>
+      <c r="N27" s="7">
+        <v>396510</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>56</v>
+      </c>
+      <c r="D28" s="7">
+        <v>38152</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="7">
+        <v>93</v>
+      </c>
+      <c r="I28" s="7">
+        <v>62864</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M28" s="7">
+        <v>149</v>
+      </c>
+      <c r="N28" s="7">
+        <v>101016</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>92</v>
+      </c>
+      <c r="D29" s="7">
+        <v>61679</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="7">
+        <v>117</v>
+      </c>
+      <c r="I29" s="7">
+        <v>79584</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="7">
+        <v>209</v>
+      </c>
+      <c r="N29" s="7">
+        <v>141264</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>141</v>
+      </c>
+      <c r="D30" s="7">
+        <v>94627</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="7">
+        <v>141</v>
+      </c>
+      <c r="I30" s="7">
+        <v>95076</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M30" s="7">
+        <v>282</v>
+      </c>
+      <c r="N30" s="7">
+        <v>189703</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>100</v>
+      </c>
+      <c r="D31" s="7">
+        <v>66141</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="7">
+        <v>52</v>
+      </c>
+      <c r="I31" s="7">
+        <v>34382</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M31" s="7">
+        <v>152</v>
+      </c>
+      <c r="N31" s="7">
+        <v>100523</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>127</v>
+      </c>
+      <c r="D32" s="7">
+        <v>82796</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="7">
+        <v>73</v>
+      </c>
+      <c r="I32" s="7">
+        <v>48946</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M32" s="7">
+        <v>200</v>
+      </c>
+      <c r="N32" s="7">
+        <v>131742</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>516</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>343395</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>476</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>320852</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>992</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>664247</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2942,8 +3261,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0858E791-F8EC-4B04-AC72-5834CC83C637}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F801B2-0811-450E-A385-EDBEF513D429}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3332,49 +3651,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>36</v>
-      </c>
-      <c r="D10" s="7">
-        <v>26384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
-      </c>
-      <c r="I10" s="7">
-        <v>18090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>62</v>
-      </c>
-      <c r="N10" s="7">
-        <v>44474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,49 +3696,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7">
-        <v>8472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>26</v>
-      </c>
-      <c r="N11" s="7">
-        <v>18252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,49 +3741,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>21</v>
-      </c>
-      <c r="D12" s="7">
-        <v>15324</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>23</v>
-      </c>
-      <c r="I12" s="7">
-        <v>16345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>44</v>
-      </c>
-      <c r="N12" s="7">
-        <v>31669</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,49 +3786,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7">
-        <v>11114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>38</v>
-      </c>
-      <c r="N13" s="7">
-        <v>27218</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,49 +3831,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
-      </c>
-      <c r="D14" s="7">
-        <v>4881</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>16</v>
-      </c>
-      <c r="I14" s="7">
-        <v>11650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>23</v>
-      </c>
-      <c r="N14" s="7">
-        <v>16530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,102 +3876,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>61686</v>
+        <v>13559</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>37431</v>
+        <v>24438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="M16" s="7">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="N16" s="7">
-        <v>99117</v>
+        <v>37997</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,49 +3974,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>39713</v>
+        <v>28659</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I17" s="7">
-        <v>27425</v>
+        <v>33423</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N17" s="7">
-        <v>67137</v>
+        <v>62083</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,49 +4025,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7">
-        <v>64986</v>
+        <v>38328</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="H18" s="7">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="I18" s="7">
-        <v>68201</v>
+        <v>38339</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="M18" s="7">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="N18" s="7">
-        <v>133187</v>
+        <v>76667</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,49 +4076,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7">
-        <v>46889</v>
+        <v>26085</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="H19" s="7">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I19" s="7">
-        <v>49138</v>
+        <v>21244</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>225</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="N19" s="7">
-        <v>96027</v>
+        <v>47329</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,49 +4127,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D20" s="7">
-        <v>51829</v>
+        <v>49418</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="H20" s="7">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="I20" s="7">
-        <v>67872</v>
+        <v>38070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="M20" s="7">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="N20" s="7">
-        <v>119701</v>
+        <v>87487</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,102 +4178,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>390</v>
+        <v>224</v>
       </c>
       <c r="D21" s="7">
-        <v>265102</v>
+        <v>156049</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>356</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>250067</v>
+        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>746</v>
+        <v>445</v>
       </c>
       <c r="N21" s="7">
-        <v>515169</v>
+        <v>311564</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7">
-        <v>88069</v>
+        <v>43150</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="H22" s="7">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I22" s="7">
-        <v>55521</v>
+        <v>55083</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="M22" s="7">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="N22" s="7">
-        <v>143590</v>
+        <v>98234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,49 +4282,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D23" s="7">
-        <v>48185</v>
+        <v>29343</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="H23" s="7">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I23" s="7">
-        <v>37204</v>
+        <v>31819</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="M23" s="7">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="N23" s="7">
-        <v>85389</v>
+        <v>61162</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +4333,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7">
-        <v>80310</v>
+        <v>41982</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="H24" s="7">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="I24" s="7">
-        <v>84546</v>
+        <v>46207</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="M24" s="7">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="N24" s="7">
-        <v>164856</v>
+        <v>88189</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,49 +4384,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>58003</v>
+        <v>22099</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="H25" s="7">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="I25" s="7">
-        <v>65242</v>
+        <v>15960</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="M25" s="7">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="N25" s="7">
-        <v>123245</v>
+        <v>38059</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,49 +4435,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7">
-        <v>56710</v>
+        <v>38652</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="H26" s="7">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="I26" s="7">
-        <v>79522</v>
+        <v>17451</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="M26" s="7">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="N26" s="7">
-        <v>136231</v>
+        <v>56103</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,55 +4486,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>258</v>
+      </c>
+      <c r="D27" s="7">
+        <v>175227</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>236</v>
+      </c>
+      <c r="I27" s="7">
+        <v>166521</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>494</v>
+      </c>
+      <c r="N27" s="7">
+        <v>341748</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>85</v>
+      </c>
+      <c r="D28" s="7">
+        <v>56710</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="7">
+        <v>111</v>
+      </c>
+      <c r="I28" s="7">
+        <v>79522</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" s="7">
+        <v>196</v>
+      </c>
+      <c r="N28" s="7">
+        <v>136231</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>86</v>
+      </c>
+      <c r="D29" s="7">
+        <v>58003</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29" s="7">
+        <v>92</v>
+      </c>
+      <c r="I29" s="7">
+        <v>65242</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" s="7">
+        <v>178</v>
+      </c>
+      <c r="N29" s="7">
+        <v>123245</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>117</v>
+      </c>
+      <c r="D30" s="7">
+        <v>80310</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="7">
+        <v>120</v>
+      </c>
+      <c r="I30" s="7">
+        <v>84546</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" s="7">
+        <v>237</v>
+      </c>
+      <c r="N30" s="7">
+        <v>164856</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>69</v>
+      </c>
+      <c r="D31" s="7">
+        <v>48185</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H31" s="7">
+        <v>54</v>
+      </c>
+      <c r="I31" s="7">
+        <v>37204</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" s="7">
+        <v>123</v>
+      </c>
+      <c r="N31" s="7">
+        <v>85389</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>125</v>
+      </c>
+      <c r="D32" s="7">
+        <v>88069</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" s="7">
+        <v>80</v>
+      </c>
+      <c r="I32" s="7">
+        <v>55521</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M32" s="7">
+        <v>205</v>
+      </c>
+      <c r="N32" s="7">
+        <v>143590</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>331277</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>457</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>322036</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>939</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>653312</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4264,8 +4861,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AA8C41-6706-4D14-BA07-F339406A726E}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C616F604-529A-4A70-AD69-4B78F2E7762B}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4281,7 +4878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4654,49 +5251,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7">
-        <v>26364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
-      </c>
-      <c r="I10" s="7">
-        <v>26840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>79</v>
-      </c>
-      <c r="N10" s="7">
-        <v>53204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,49 +5296,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7">
-        <v>14971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
-      </c>
-      <c r="I11" s="7">
-        <v>15881</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>46</v>
-      </c>
-      <c r="N11" s="7">
-        <v>30853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,49 +5341,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>16</v>
-      </c>
-      <c r="D12" s="7">
-        <v>10866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
-      </c>
-      <c r="I12" s="7">
-        <v>17342</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>41</v>
-      </c>
-      <c r="N12" s="7">
-        <v>28208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,49 +5386,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7">
-        <v>11114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
-      </c>
-      <c r="N13" s="7">
-        <v>26411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,49 +5431,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7">
-        <v>16417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>23</v>
-      </c>
-      <c r="I14" s="7">
-        <v>16153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>47</v>
-      </c>
-      <c r="N14" s="7">
-        <v>32570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>320</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,102 +5476,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>115</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>138</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>253</v>
-      </c>
-      <c r="N15" s="7">
-        <v>171245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7">
-        <v>68563</v>
+        <v>36330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="I16" s="7">
-        <v>46830</v>
+        <v>31874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="N16" s="7">
-        <v>115393</v>
+        <v>68204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,49 +5574,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>57151</v>
+        <v>28019</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I17" s="7">
-        <v>32479</v>
+        <v>36653</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="N17" s="7">
-        <v>89630</v>
+        <v>64672</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,49 +5625,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7">
-        <v>53622</v>
+        <v>28599</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>338</v>
+        <v>65</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="I18" s="7">
-        <v>57806</v>
+        <v>34921</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="N18" s="7">
-        <v>111428</v>
+        <v>63520</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,49 +5676,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7">
-        <v>52400</v>
+        <v>35686</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="I19" s="7">
-        <v>58667</v>
+        <v>32618</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="N19" s="7">
-        <v>111067</v>
+        <v>68305</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,49 +5727,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D20" s="7">
-        <v>49894</v>
+        <v>58679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="I20" s="7">
-        <v>68240</v>
+        <v>49917</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N20" s="7">
-        <v>118134</v>
+        <v>108596</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,102 +5778,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="D21" s="7">
-        <v>281629</v>
+        <v>187313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>370</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>264022</v>
+        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>751</v>
+        <v>528</v>
       </c>
       <c r="N21" s="7">
-        <v>545652</v>
+        <v>373296</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7">
-        <v>94927</v>
+        <v>29981</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="I22" s="7">
-        <v>73670</v>
+        <v>52519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>364</v>
+        <v>70</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="M22" s="7">
-        <v>233</v>
+        <v>115</v>
       </c>
       <c r="N22" s="7">
-        <v>168597</v>
+        <v>82500</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,49 +5882,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D23" s="7">
-        <v>72122</v>
+        <v>35495</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>335</v>
       </c>
       <c r="H23" s="7">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I23" s="7">
-        <v>48361</v>
+        <v>37311</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="M23" s="7">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="N23" s="7">
-        <v>120483</v>
+        <v>72805</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,49 +5933,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D24" s="7">
-        <v>64488</v>
+        <v>35889</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>343</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="H24" s="7">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="I24" s="7">
-        <v>75148</v>
+        <v>40228</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>376</v>
+        <v>253</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="M24" s="7">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="N24" s="7">
-        <v>139636</v>
+        <v>76116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,49 +5984,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D25" s="7">
-        <v>63514</v>
+        <v>36436</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>383</v>
+        <v>34</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="H25" s="7">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="I25" s="7">
-        <v>73964</v>
+        <v>15743</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>152</v>
+        <v>353</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="M25" s="7">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="N25" s="7">
-        <v>137477</v>
+        <v>52178</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>387</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,49 +6035,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7">
-        <v>66311</v>
+        <v>36248</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>242</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="I26" s="7">
-        <v>84393</v>
+        <v>23754</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="M26" s="7">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="N26" s="7">
-        <v>150703</v>
+        <v>60001</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>394</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,55 +6086,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>241</v>
+      </c>
+      <c r="I27" s="7">
+        <v>169553</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>476</v>
+      </c>
+      <c r="N27" s="7">
+        <v>343601</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>91</v>
+      </c>
+      <c r="D28" s="7">
+        <v>66311</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="7">
+        <v>119</v>
+      </c>
+      <c r="I28" s="7">
+        <v>84393</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M28" s="7">
+        <v>210</v>
+      </c>
+      <c r="N28" s="7">
+        <v>150703</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>87</v>
+      </c>
+      <c r="D29" s="7">
+        <v>63514</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H29" s="7">
+        <v>106</v>
+      </c>
+      <c r="I29" s="7">
+        <v>73964</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="M29" s="7">
+        <v>193</v>
+      </c>
+      <c r="N29" s="7">
+        <v>137477</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>90</v>
+      </c>
+      <c r="D30" s="7">
+        <v>64488</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H30" s="7">
+        <v>108</v>
+      </c>
+      <c r="I30" s="7">
+        <v>75148</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="M30" s="7">
+        <v>198</v>
+      </c>
+      <c r="N30" s="7">
+        <v>139636</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>100</v>
+      </c>
+      <c r="D31" s="7">
+        <v>72122</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31" s="7">
+        <v>70</v>
+      </c>
+      <c r="I31" s="7">
+        <v>48361</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="M31" s="7">
+        <v>170</v>
+      </c>
+      <c r="N31" s="7">
+        <v>120483</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>128</v>
+      </c>
+      <c r="D32" s="7">
+        <v>94927</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H32" s="7">
+        <v>105</v>
+      </c>
+      <c r="I32" s="7">
+        <v>73670</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M32" s="7">
+        <v>233</v>
+      </c>
+      <c r="N32" s="7">
+        <v>168597</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>496</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>361361</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>508</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>355536</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>1004</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>716897</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A04-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46BB7865-A54A-49B2-8FAB-FF5D4908EF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D6BF8B-F57F-491B-9CA6-6A11096731E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{17E3D5A8-8B04-431B-97D8-B70E1C694243}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{822B90CC-6A70-4C93-A5CD-F18B8012A28F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="398">
   <si>
     <t>Menores según frecuencia de preocuparse por su aspecto en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
@@ -97,1159 +97,1141 @@
     <t>5,09%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>10,12%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse por su aspecto en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse por su aspecto en 2016 (Tasa respuesta: 47,22%)</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>23,62%</t>
   </si>
   <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse por su aspecto en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
   </si>
   <si>
     <t>19,96%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse por su aspecto en 2015 (Tasa respuesta: 47,22%)</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>26,28%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C0044C-22A0-41CC-8070-8CA9EB38880F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1015AC3A-1AC2-4603-B082-E1EF73C26F32}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2706,10 +2688,10 @@
         <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>131</v>
@@ -2718,13 +2700,13 @@
         <v>87790</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2721,13 @@
         <v>54308</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7">
         <v>81</v>
@@ -2754,13 +2736,13 @@
         <v>55167</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
         <v>163</v>
@@ -2772,10 +2754,10 @@
         <v>88</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2772,13 @@
         <v>34342</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -2805,13 +2787,13 @@
         <v>19050</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -2820,13 +2802,13 @@
         <v>53392</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2823,13 @@
         <v>41864</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H26" s="7">
         <v>35</v>
@@ -2856,13 +2838,13 @@
         <v>23519</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M26" s="7">
         <v>99</v>
@@ -2871,13 +2853,13 @@
         <v>65383</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2927,13 @@
         <v>38152</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H28" s="7">
         <v>93</v>
@@ -2960,13 +2942,13 @@
         <v>62864</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M28" s="7">
         <v>149</v>
@@ -2975,13 +2957,13 @@
         <v>101016</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,10 +3134,10 @@
         <v>143</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H32" s="7">
         <v>73</v>
@@ -3164,13 +3146,13 @@
         <v>48946</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M32" s="7">
         <v>200</v>
@@ -3179,13 +3161,13 @@
         <v>131742</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3223,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3261,7 +3243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F801B2-0811-450E-A385-EDBEF513D429}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80CE47C-FFC6-4DC5-BF6E-DC0D2737394E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3278,7 +3260,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3929,13 +3911,13 @@
         <v>13559</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>154</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -3944,13 +3926,13 @@
         <v>24438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -3959,13 +3941,13 @@
         <v>37997</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3962,13 @@
         <v>28659</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -3995,13 +3977,13 @@
         <v>33423</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -4010,13 +3992,13 @@
         <v>62083</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4013,13 @@
         <v>38328</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
@@ -4046,13 +4028,13 @@
         <v>38339</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M18" s="7">
         <v>111</v>
@@ -4061,13 +4043,13 @@
         <v>76667</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4064,13 @@
         <v>26085</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -4097,13 +4079,13 @@
         <v>21244</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>67</v>
@@ -4112,13 +4094,13 @@
         <v>47329</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4115,13 @@
         <v>49418</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -4148,13 +4130,13 @@
         <v>38070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M20" s="7">
         <v>123</v>
@@ -4163,13 +4145,13 @@
         <v>87487</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4219,13 @@
         <v>43150</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -4252,13 +4234,13 @@
         <v>55083</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M22" s="7">
         <v>141</v>
@@ -4267,13 +4249,13 @@
         <v>98234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4270,13 @@
         <v>29343</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H23" s="7">
         <v>45</v>
@@ -4303,13 +4285,13 @@
         <v>31819</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M23" s="7">
         <v>89</v>
@@ -4318,13 +4300,13 @@
         <v>61162</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4321,13 @@
         <v>41982</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -4354,13 +4336,13 @@
         <v>46207</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M24" s="7">
         <v>126</v>
@@ -4369,13 +4351,13 @@
         <v>88189</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4372,13 @@
         <v>22099</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -4405,13 +4387,13 @@
         <v>15960</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M25" s="7">
         <v>56</v>
@@ -4420,13 +4402,13 @@
         <v>38059</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4423,13 @@
         <v>38652</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -4456,13 +4438,13 @@
         <v>17451</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M26" s="7">
         <v>82</v>
@@ -4471,13 +4453,13 @@
         <v>56103</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4527,13 @@
         <v>56710</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="H28" s="7">
         <v>111</v>
@@ -4560,13 +4542,13 @@
         <v>79522</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M28" s="7">
         <v>196</v>
@@ -4575,13 +4557,13 @@
         <v>136231</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>247</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4608,13 @@
         <v>123245</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4629,13 @@
         <v>80310</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H30" s="7">
         <v>120</v>
@@ -4662,13 +4644,13 @@
         <v>84546</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M30" s="7">
         <v>237</v>
@@ -4677,13 +4659,13 @@
         <v>164856</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4680,13 @@
         <v>48185</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H31" s="7">
         <v>54</v>
@@ -4713,13 +4695,13 @@
         <v>37204</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M31" s="7">
         <v>123</v>
@@ -4728,13 +4710,13 @@
         <v>85389</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4731,13 @@
         <v>88069</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H32" s="7">
         <v>80</v>
@@ -4764,13 +4746,13 @@
         <v>55521</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M32" s="7">
         <v>205</v>
@@ -4841,7 +4823,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4861,7 +4843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C616F604-529A-4A70-AD69-4B78F2E7762B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C531EF-E35E-4DAF-96BA-CC9826C65BAD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5559,13 +5541,13 @@
         <v>68204</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5562,13 @@
         <v>28019</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>137</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -5595,13 +5577,13 @@
         <v>36653</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -5610,13 +5592,13 @@
         <v>64672</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,10 +5616,10 @@
         <v>65</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -5646,13 +5628,13 @@
         <v>34921</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>89</v>
@@ -5661,13 +5643,13 @@
         <v>63520</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5664,13 @@
         <v>35686</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -5697,13 +5679,13 @@
         <v>32618</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>97</v>
@@ -5712,13 +5694,13 @@
         <v>68305</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5715,13 @@
         <v>58679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>73</v>
@@ -5748,13 +5730,13 @@
         <v>49917</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>155</v>
@@ -5763,13 +5745,13 @@
         <v>108596</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5819,13 @@
         <v>29981</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -5852,13 +5834,13 @@
         <v>52519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>70</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -5867,13 +5849,13 @@
         <v>82500</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5870,13 @@
         <v>35495</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H23" s="7">
         <v>53</v>
@@ -5903,13 +5885,13 @@
         <v>37311</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -5918,13 +5900,13 @@
         <v>72805</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5921,13 @@
         <v>35889</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>59</v>
@@ -5954,13 +5936,13 @@
         <v>40228</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>109</v>
@@ -5969,13 +5951,13 @@
         <v>76116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +5972,13 @@
         <v>36436</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>34</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -6005,13 +5987,13 @@
         <v>15743</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -6020,13 +6002,13 @@
         <v>52178</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6023,13 @@
         <v>36248</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -6056,13 +6038,13 @@
         <v>23754</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -6071,13 +6053,13 @@
         <v>60001</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6127,13 @@
         <v>66311</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="H28" s="7">
         <v>119</v>
@@ -6160,13 +6142,13 @@
         <v>84393</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>368</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M28" s="7">
         <v>210</v>
@@ -6175,13 +6157,13 @@
         <v>150703</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6178,13 @@
         <v>63514</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H29" s="7">
         <v>106</v>
@@ -6211,13 +6193,13 @@
         <v>73964</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>376</v>
+        <v>250</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M29" s="7">
         <v>193</v>
@@ -6226,13 +6208,13 @@
         <v>137477</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6229,13 @@
         <v>64488</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="H30" s="7">
         <v>108</v>
@@ -6262,13 +6244,13 @@
         <v>75148</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="M30" s="7">
         <v>198</v>
@@ -6277,13 +6259,13 @@
         <v>139636</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>388</v>
+        <v>227</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6280,13 @@
         <v>72122</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>247</v>
+        <v>384</v>
       </c>
       <c r="H31" s="7">
         <v>70</v>
@@ -6313,13 +6295,13 @@
         <v>48361</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M31" s="7">
         <v>170</v>
@@ -6328,13 +6310,13 @@
         <v>120483</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>394</v>
+        <v>264</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6331,13 @@
         <v>94927</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H32" s="7">
         <v>105</v>
@@ -6364,13 +6346,13 @@
         <v>73670</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>310</v>
+        <v>395</v>
       </c>
       <c r="M32" s="7">
         <v>233</v>
@@ -6379,13 +6361,13 @@
         <v>168597</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,7 +6423,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D6BF8B-F57F-491B-9CA6-6A11096731E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E59110C0-DA95-46BB-92F3-62B49E5CABEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{822B90CC-6A70-4C93-A5CD-F18B8012A28F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{861D2A26-31F4-4786-B105-AFEDC72A2E98}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="401">
   <si>
     <t>Menores según frecuencia de preocuparse por su aspecto en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1144 +94,1153 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
   <si>
     <t>19,97%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
   </si>
   <si>
     <t>28,76%</t>
   </si>
   <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse por su aspecto en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>24,69%</t>
   </si>
   <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>20,48%</t>
   </si>
   <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse por su aspecto en 2016 (Tasa respuesta: 47,22%)</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse por su aspecto en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
   </si>
   <si>
     <t>14,16%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
   </si>
   <si>
     <t>20,8%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse por su aspecto en 2016 (Tasa respuesta: 47,22%)</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>20,7%</t>
   </si>
   <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
+    <t>26,18%</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1015AC3A-1AC2-4603-B082-E1EF73C26F32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350C36A4-247B-49E6-AD0F-C704519922A9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2305,10 +2314,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>7130</v>
+        <v>13414</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2320,10 +2329,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>13414</v>
+        <v>7130</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2356,10 +2365,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7">
-        <v>20008</v>
+        <v>33466</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2371,10 +2380,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>33466</v>
+        <v>20008</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2407,10 +2416,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="7">
-        <v>40319</v>
+        <v>39909</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2422,10 +2431,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="7">
-        <v>39909</v>
+        <v>40319</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2458,10 +2467,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>31799</v>
+        <v>15332</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2473,10 +2482,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I19" s="7">
-        <v>15332</v>
+        <v>31799</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2509,10 +2518,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7">
-        <v>40932</v>
+        <v>25427</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>54</v>
@@ -2524,10 +2533,10 @@
         <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I20" s="7">
-        <v>25427</v>
+        <v>40932</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>57</v>
@@ -2560,25 +2569,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>191</v>
+      </c>
+      <c r="D21" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>210</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>140189</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>191</v>
-      </c>
-      <c r="I21" s="7">
-        <v>127548</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -2613,10 +2622,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D22" s="7">
-        <v>31021</v>
+        <v>49450</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>65</v>
@@ -2628,10 +2637,10 @@
         <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="I22" s="7">
-        <v>49450</v>
+        <v>31021</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>68</v>
@@ -2664,10 +2673,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D23" s="7">
-        <v>41671</v>
+        <v>46119</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>74</v>
@@ -2679,10 +2688,10 @@
         <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I23" s="7">
-        <v>46119</v>
+        <v>41671</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>77</v>
@@ -2715,10 +2724,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="7">
-        <v>54308</v>
+        <v>55167</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>83</v>
@@ -2730,10 +2739,10 @@
         <v>85</v>
       </c>
       <c r="H24" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I24" s="7">
-        <v>55167</v>
+        <v>54308</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>86</v>
@@ -2742,7 +2751,7 @@
         <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
         <v>163</v>
@@ -2751,13 +2760,13 @@
         <v>109475</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,34 +2775,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7">
+        <v>19050</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="7">
         <v>52</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>34342</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="7">
-        <v>29</v>
-      </c>
-      <c r="I25" s="7">
-        <v>19050</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -2802,13 +2811,13 @@
         <v>53392</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,34 +2826,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>35</v>
+      </c>
+      <c r="D26" s="7">
+        <v>23519</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="7">
         <v>64</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>41864</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" s="7">
-        <v>35</v>
-      </c>
-      <c r="I26" s="7">
-        <v>23519</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>99</v>
@@ -2853,13 +2862,13 @@
         <v>65383</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,25 +2877,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>285</v>
+      </c>
+      <c r="D27" s="7">
+        <v>193304</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>306</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>203206</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>285</v>
-      </c>
-      <c r="I27" s="7">
-        <v>193304</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -2921,34 +2930,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>93</v>
+      </c>
+      <c r="D28" s="7">
+        <v>62864</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="7">
         <v>56</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>38152</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="7">
-        <v>93</v>
-      </c>
-      <c r="I28" s="7">
-        <v>62864</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M28" s="7">
         <v>149</v>
@@ -2957,13 +2966,13 @@
         <v>101016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,34 +2981,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>117</v>
+      </c>
+      <c r="D29" s="7">
+        <v>79584</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="7">
         <v>92</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>61679</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29" s="7">
-        <v>117</v>
-      </c>
-      <c r="I29" s="7">
-        <v>79584</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>209</v>
@@ -3008,13 +3017,13 @@
         <v>141264</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,31 +3035,31 @@
         <v>141</v>
       </c>
       <c r="D30" s="7">
-        <v>94627</v>
+        <v>95076</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H30" s="7">
         <v>141</v>
       </c>
       <c r="I30" s="7">
-        <v>95076</v>
+        <v>94627</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M30" s="7">
         <v>282</v>
@@ -3059,13 +3068,13 @@
         <v>189703</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,34 +3083,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>52</v>
+      </c>
+      <c r="D31" s="7">
+        <v>34382</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="7">
         <v>100</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>66141</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" s="7">
-        <v>52</v>
-      </c>
-      <c r="I31" s="7">
-        <v>34382</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M31" s="7">
         <v>152</v>
@@ -3110,13 +3119,13 @@
         <v>100523</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,34 +3134,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>73</v>
+      </c>
+      <c r="D32" s="7">
+        <v>48946</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="7">
         <v>127</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>82796</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="7">
-        <v>73</v>
-      </c>
-      <c r="I32" s="7">
-        <v>48946</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M32" s="7">
         <v>200</v>
@@ -3161,13 +3170,13 @@
         <v>131742</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,25 +3185,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>476</v>
+      </c>
+      <c r="D33" s="7">
+        <v>320852</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>516</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>343395</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>476</v>
-      </c>
-      <c r="I33" s="7">
-        <v>320852</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -3223,7 +3232,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3243,7 +3252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80CE47C-FFC6-4DC5-BF6E-DC0D2737394E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D70031-79AB-4935-A78E-71D87B85175C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3260,7 +3269,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3905,34 +3914,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7">
+        <v>24438</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="7">
         <v>20</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>13559</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="7">
-        <v>35</v>
-      </c>
-      <c r="I16" s="7">
-        <v>24438</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -3941,13 +3950,13 @@
         <v>37997</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,34 +3965,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>47</v>
+      </c>
+      <c r="D17" s="7">
+        <v>33423</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="7">
         <v>42</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>28659</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="7">
-        <v>47</v>
-      </c>
-      <c r="I17" s="7">
-        <v>33423</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -3992,13 +4001,13 @@
         <v>62083</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,34 +4016,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>54</v>
+      </c>
+      <c r="D18" s="7">
+        <v>38339</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="7">
         <v>57</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>38328</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="7">
-        <v>54</v>
-      </c>
-      <c r="I18" s="7">
-        <v>38339</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M18" s="7">
         <v>111</v>
@@ -4043,13 +4052,13 @@
         <v>76667</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,34 +4067,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7">
+        <v>21244</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="7">
         <v>37</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>26085</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" s="7">
-        <v>30</v>
-      </c>
-      <c r="I19" s="7">
-        <v>21244</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
         <v>67</v>
@@ -4094,13 +4103,13 @@
         <v>47329</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,34 +4118,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>55</v>
+      </c>
+      <c r="D20" s="7">
+        <v>38070</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="7">
         <v>68</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>49418</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H20" s="7">
-        <v>55</v>
-      </c>
-      <c r="I20" s="7">
-        <v>38070</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M20" s="7">
         <v>123</v>
@@ -4145,13 +4154,13 @@
         <v>87487</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,25 +4169,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>221</v>
+      </c>
+      <c r="D21" s="7">
+        <v>155514</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>224</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156049</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>221</v>
-      </c>
-      <c r="I21" s="7">
-        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -4213,34 +4222,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>76</v>
+      </c>
+      <c r="D22" s="7">
+        <v>55083</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="7">
         <v>65</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>43150</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H22" s="7">
-        <v>76</v>
-      </c>
-      <c r="I22" s="7">
-        <v>55083</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M22" s="7">
         <v>141</v>
@@ -4249,13 +4258,13 @@
         <v>98234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,34 +4273,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>45</v>
+      </c>
+      <c r="D23" s="7">
+        <v>31819</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" s="7">
         <v>44</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>29343</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H23" s="7">
-        <v>45</v>
-      </c>
-      <c r="I23" s="7">
-        <v>31819</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M23" s="7">
         <v>89</v>
@@ -4300,13 +4309,13 @@
         <v>61162</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,34 +4324,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>66</v>
+      </c>
+      <c r="D24" s="7">
+        <v>46207</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" s="7">
         <v>60</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>41982</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H24" s="7">
-        <v>66</v>
-      </c>
-      <c r="I24" s="7">
-        <v>46207</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M24" s="7">
         <v>126</v>
@@ -4351,13 +4360,13 @@
         <v>88189</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,34 +4375,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7">
+        <v>15960</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H25" s="7">
         <v>32</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>22099</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H25" s="7">
-        <v>24</v>
-      </c>
-      <c r="I25" s="7">
-        <v>15960</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M25" s="7">
         <v>56</v>
@@ -4402,13 +4411,13 @@
         <v>38059</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,34 +4426,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>25</v>
+      </c>
+      <c r="D26" s="7">
+        <v>17451</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" s="7">
         <v>57</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>38652</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H26" s="7">
-        <v>25</v>
-      </c>
-      <c r="I26" s="7">
-        <v>17451</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M26" s="7">
         <v>82</v>
@@ -4453,13 +4462,13 @@
         <v>56103</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,25 +4477,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>236</v>
+      </c>
+      <c r="D27" s="7">
+        <v>166521</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>258</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>175227</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>236</v>
-      </c>
-      <c r="I27" s="7">
-        <v>166521</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -4521,34 +4530,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>111</v>
+      </c>
+      <c r="D28" s="7">
+        <v>79522</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28" s="7">
         <v>85</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>56710</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H28" s="7">
-        <v>111</v>
-      </c>
-      <c r="I28" s="7">
-        <v>79522</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M28" s="7">
         <v>196</v>
@@ -4557,13 +4566,13 @@
         <v>136231</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,34 +4581,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>92</v>
+      </c>
+      <c r="D29" s="7">
+        <v>65242</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="7">
         <v>86</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>58003</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H29" s="7">
-        <v>92</v>
-      </c>
-      <c r="I29" s="7">
-        <v>65242</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="M29" s="7">
         <v>178</v>
@@ -4608,13 +4617,13 @@
         <v>123245</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,34 +4632,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>120</v>
+      </c>
+      <c r="D30" s="7">
+        <v>84546</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H30" s="7">
         <v>117</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>80310</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H30" s="7">
-        <v>120</v>
-      </c>
-      <c r="I30" s="7">
-        <v>84546</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M30" s="7">
         <v>237</v>
@@ -4659,13 +4668,13 @@
         <v>164856</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,34 +4683,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>54</v>
+      </c>
+      <c r="D31" s="7">
+        <v>37204</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H31" s="7">
         <v>69</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>48185</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H31" s="7">
-        <v>54</v>
-      </c>
-      <c r="I31" s="7">
-        <v>37204</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M31" s="7">
         <v>123</v>
@@ -4710,13 +4719,13 @@
         <v>85389</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,34 +4734,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>80</v>
+      </c>
+      <c r="D32" s="7">
+        <v>55521</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H32" s="7">
         <v>125</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>88069</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H32" s="7">
-        <v>80</v>
-      </c>
-      <c r="I32" s="7">
-        <v>55521</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M32" s="7">
         <v>205</v>
@@ -4761,13 +4770,13 @@
         <v>143590</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,25 +4785,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>457</v>
+      </c>
+      <c r="D33" s="7">
+        <v>322036</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>482</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>331277</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>457</v>
-      </c>
-      <c r="I33" s="7">
-        <v>322036</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -4823,7 +4832,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4843,7 +4852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C531EF-E35E-4DAF-96BA-CC9826C65BAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7AD924-0653-4479-BC19-5352859ED107}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4860,7 +4869,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5505,34 +5514,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7">
+        <v>31874</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H16" s="7">
         <v>51</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>36330</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H16" s="7">
-        <v>44</v>
-      </c>
-      <c r="I16" s="7">
-        <v>31874</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -5541,13 +5550,13 @@
         <v>68204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,34 +5565,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>53</v>
+      </c>
+      <c r="D17" s="7">
+        <v>36653</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H17" s="7">
         <v>39</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>28019</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H17" s="7">
-        <v>53</v>
-      </c>
-      <c r="I17" s="7">
-        <v>36653</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -5592,13 +5601,13 @@
         <v>64672</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,34 +5616,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7">
+        <v>34921</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H18" s="7">
         <v>40</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>28599</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H18" s="7">
-        <v>49</v>
-      </c>
-      <c r="I18" s="7">
-        <v>34921</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>89</v>
@@ -5643,13 +5652,13 @@
         <v>63520</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,34 +5667,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>48</v>
+      </c>
+      <c r="D19" s="7">
+        <v>32618</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H19" s="7">
         <v>49</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>35686</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="7">
-        <v>48</v>
-      </c>
-      <c r="I19" s="7">
-        <v>32618</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>179</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>97</v>
@@ -5694,13 +5703,13 @@
         <v>68305</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,34 +5718,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>73</v>
+      </c>
+      <c r="D20" s="7">
+        <v>49917</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H20" s="7">
         <v>82</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>58679</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="7">
-        <v>73</v>
-      </c>
-      <c r="I20" s="7">
-        <v>49917</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>155</v>
@@ -5745,13 +5754,13 @@
         <v>108596</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,25 +5769,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>267</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185983</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>261</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>187313</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -5813,34 +5822,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>75</v>
+      </c>
+      <c r="D22" s="7">
+        <v>52519</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H22" s="7">
         <v>40</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>29981</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H22" s="7">
-        <v>75</v>
-      </c>
-      <c r="I22" s="7">
-        <v>52519</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -5849,13 +5858,13 @@
         <v>82500</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,34 +5873,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>53</v>
+      </c>
+      <c r="D23" s="7">
+        <v>37311</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H23" s="7">
         <v>48</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>35495</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H23" s="7">
-        <v>53</v>
-      </c>
-      <c r="I23" s="7">
-        <v>37311</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -5900,13 +5909,13 @@
         <v>72805</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,34 +5924,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7">
+        <v>40228</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H24" s="7">
         <v>50</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>35889</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H24" s="7">
-        <v>59</v>
-      </c>
-      <c r="I24" s="7">
-        <v>40228</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>345</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M24" s="7">
         <v>109</v>
@@ -5951,13 +5960,13 @@
         <v>76116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,34 +5975,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>22</v>
+      </c>
+      <c r="D25" s="7">
+        <v>15743</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="7">
         <v>51</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>36436</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H25" s="7">
-        <v>22</v>
-      </c>
-      <c r="I25" s="7">
-        <v>15743</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -6002,13 +6011,13 @@
         <v>52178</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,34 +6026,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>32</v>
+      </c>
+      <c r="D26" s="7">
+        <v>23754</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H26" s="7">
         <v>46</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>36248</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H26" s="7">
-        <v>32</v>
-      </c>
-      <c r="I26" s="7">
-        <v>23754</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -6053,13 +6062,13 @@
         <v>60001</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>120</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,25 +6077,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>241</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169553</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>235</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174048</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>241</v>
-      </c>
-      <c r="I27" s="7">
-        <v>169553</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -6121,34 +6130,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>119</v>
+      </c>
+      <c r="D28" s="7">
+        <v>84393</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H28" s="7">
         <v>91</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>66311</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H28" s="7">
-        <v>119</v>
-      </c>
-      <c r="I28" s="7">
-        <v>84393</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>364</v>
+        <v>283</v>
       </c>
       <c r="M28" s="7">
         <v>210</v>
@@ -6157,13 +6166,13 @@
         <v>150703</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,34 +6181,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>106</v>
+      </c>
+      <c r="D29" s="7">
+        <v>73964</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H29" s="7">
         <v>87</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>63514</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H29" s="7">
-        <v>106</v>
-      </c>
-      <c r="I29" s="7">
-        <v>73964</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>250</v>
+        <v>374</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>371</v>
+        <v>235</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M29" s="7">
         <v>193</v>
@@ -6208,13 +6217,13 @@
         <v>137477</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>375</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,34 +6232,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>108</v>
+      </c>
+      <c r="D30" s="7">
+        <v>75148</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H30" s="7">
         <v>90</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>64488</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H30" s="7">
-        <v>108</v>
-      </c>
-      <c r="I30" s="7">
-        <v>75148</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M30" s="7">
         <v>198</v>
@@ -6259,13 +6268,13 @@
         <v>139636</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,34 +6283,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>70</v>
+      </c>
+      <c r="D31" s="7">
+        <v>48361</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H31" s="7">
         <v>100</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>72122</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H31" s="7">
-        <v>70</v>
-      </c>
-      <c r="I31" s="7">
-        <v>48361</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M31" s="7">
         <v>170</v>
@@ -6310,13 +6319,13 @@
         <v>120483</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>264</v>
+        <v>391</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,34 +6334,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>105</v>
+      </c>
+      <c r="D32" s="7">
+        <v>73670</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H32" s="7">
         <v>128</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>94927</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H32" s="7">
-        <v>105</v>
-      </c>
-      <c r="I32" s="7">
-        <v>73670</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M32" s="7">
         <v>233</v>
@@ -6361,13 +6370,13 @@
         <v>168597</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,25 +6385,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>508</v>
+      </c>
+      <c r="D33" s="7">
+        <v>355536</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>496</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>361361</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>508</v>
-      </c>
-      <c r="I33" s="7">
-        <v>355536</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -6423,7 +6432,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
